--- a/objectList.xlsx
+++ b/objectList.xlsx
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1619,16 +1619,16 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I15" s="4">
         <v>20</v>
       </c>
       <c r="J15" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K15" s="4">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:11">
